--- a/Data/StateRankings.xlsx
+++ b/Data/StateRankings.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Rankings" sheetId="1" r:id="rId1"/>
-    <sheet name="Rubric" sheetId="2" r:id="rId2"/>
+    <sheet name="StateRankings-Rubric" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -532,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +573,12 @@
       <color rgb="FF000000"/>
       <name val="HelveticaNeueLTStd"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -591,8 +597,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="229">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -851,7 +865,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="229">
+  <cellStyles count="237">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -966,6 +980,10 @@
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1080,6 +1098,10 @@
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1374,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -2245,11 +2267,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2853,11 +2878,12 @@
       <c r="F33" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="67" fitToHeight="7" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/Data/StateRankings.xlsx
+++ b/Data/StateRankings.xlsx
@@ -2308,7 +2308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="78">
+    <row r="2" spans="1:8" ht="82" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
